--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_17.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>276911.9736903123</v>
+        <v>224445.2846857809</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072688</v>
+        <v>10911602.29072687</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>4.580549094716531</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>119.3132525143586</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="F5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>3.265316057196584</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.79900896488229</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>231.8635835046278</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>227.7664834517758</v>
       </c>
     </row>
     <row r="9">
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V11" t="n">
-        <v>25.38754939902126</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1458,7 +1458,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1579,7 +1579,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>173.6677896396941</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.3734398702023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1807,25 +1807,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017901</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.3734398702014</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>318.8646528977445</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1859,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.43141783824915</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>70.26541886851889</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>61.13107858456319</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>11.62555562522635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3389484681866</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>5.102276705729518</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2451,7 +2451,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>223.8243835520302</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>99.37803318259343</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>34.78065824339543</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>53.06513659042586</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2874,7 +2874,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>97.34004921506748</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>18.92932486514966</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>117.7223467653903</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3156,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.1478855987994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>376.184863643924</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>184.287718198781</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>32.49138749858555</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.7821044163267</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>58.73239582312478</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T40" t="n">
-        <v>68.19029374363589</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>95.09774413911212</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>177.2389031129445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>281.5496867510632</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>41.751008370397</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>123.2489740555614</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058702</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.90796037760316</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C3" t="n">
-        <v>23.90796037760316</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D3" t="n">
-        <v>23.90796037760316</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>139.7995799934033</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4419,40 +4419,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X3" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>266.028218801986</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>266.028218801986</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>266.028218801986</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>22.57944215788604</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788604</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4568,49 +4568,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>122.296149021135</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057932</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686974</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759367</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185848</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901859</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901859</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460859</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460859</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460859</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460859</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460859</v>
       </c>
     </row>
     <row r="6">
@@ -4650,43 +4650,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.8095319084026</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.8095319084026</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.413677897285</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551991</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915882</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598455</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4747,19 +4747,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.0670914110435</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="C8" t="n">
-        <v>521.1660470154206</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="D8" t="n">
-        <v>255.2650026197978</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="E8" t="n">
-        <v>255.2650026197978</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613333</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613333</v>
@@ -4844,10 +4844,10 @@
         <v>1052.968135806666</v>
       </c>
       <c r="X8" t="n">
-        <v>787.0670914110435</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.0670914110435</v>
+        <v>822.9009808048727</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>394.933760794076</v>
       </c>
       <c r="M9" t="n">
-        <v>655.5433744062259</v>
+        <v>621.5712441093533</v>
       </c>
       <c r="N9" t="n">
-        <v>716.9050068346266</v>
+        <v>621.5712441093533</v>
       </c>
       <c r="O9" t="n">
-        <v>977.3180709271187</v>
+        <v>870.3246581933156</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
         <v>1052.968135806666</v>
@@ -4984,10 +4984,10 @@
         <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T10" t="n">
         <v>21.05936271613333</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>464.928886609972</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C11" t="n">
-        <v>464.928886609972</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D11" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
         <v>53.94298182036445</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V11" t="n">
-        <v>1967.902472181099</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W11" t="n">
-        <v>1615.133816910985</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X11" t="n">
-        <v>1241.668058649906</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y11" t="n">
-        <v>851.5287266740938</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961344</v>
@@ -5121,40 +5121,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.2718927217162</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2476.569858826099</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,34 +5294,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5352,16 +5352,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5376,22 +5376,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064343</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>598.044640063212</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1744.23243129246</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M18" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.9553738610022</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C19" t="n">
-        <v>438.9553738610022</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D19" t="n">
-        <v>438.9553738610022</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>292.0654263630918</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>123.0656261014242</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="W19" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="X19" t="n">
-        <v>438.9553738610022</v>
+        <v>272.8312459770191</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.9553738610022</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1161.086123514381</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="C20" t="n">
-        <v>792.1236065739691</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="D20" t="n">
-        <v>792.1236065739691</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1236065739691</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>860.8500741130063</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>442.8862660111931</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>115.691546047196</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U20" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2290.593950824429</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W20" t="n">
-        <v>1937.825295554314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X20" t="n">
-        <v>1937.825295554314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.685963578503</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="21">
@@ -5805,73 +5805,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1584.314837422907</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="C23" t="n">
-        <v>1584.314837422907</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D23" t="n">
-        <v>1584.314837422907</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E23" t="n">
-        <v>1198.526584824663</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F23" t="n">
-        <v>787.5406800350552</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2691.995276163951</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2691.995276163951</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2473.360609136013</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2473.360609136013</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2473.360609136013</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748109</v>
+        <v>2473.360609136013</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487029</v>
+        <v>2473.360609136013</v>
       </c>
       <c r="Y23" t="n">
-        <v>1970.914677487029</v>
+        <v>2083.221277160202</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U25" t="n">
-        <v>2407.975480672791</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V25" t="n">
-        <v>2407.975480672791</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W25" t="n">
-        <v>2118.55831063583</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X25" t="n">
-        <v>2118.55831063583</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y25" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2323.103882821189</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.141365880777</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
@@ -6227,16 +6227,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6251,25 +6251,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2541.738549849126</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2323.103882821189</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2323.103882821189</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2323.103882821189</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="W26" t="n">
-        <v>2323.103882821189</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.103882821189</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.103882821189</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6303,31 +6303,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>368.8844281164663</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>773.5003462121382</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2118.55831063583</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C28" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>2118.55831063583</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>2118.55831063583</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y28" t="n">
-        <v>2118.55831063583</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1273.280804219765</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>904.3182872793534</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2423.485734520778</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X29" t="n">
-        <v>2050.019976259699</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y29" t="n">
-        <v>1659.880644283887</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6561,22 +6561,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1251.855211652197</v>
+        <v>1345.623078162045</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8926947117852</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U32" t="n">
-        <v>2402.06014195321</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2402.06014195321</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>2402.06014195321</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>2028.59438369213</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1638.455051716319</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6798,10 +6798,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.929004554789</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.992821626882</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.876182214546</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>2489.929004554789</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2279.793703561087</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1927.025048290972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1553.559290029893</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2118.55831063583</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7114,31 +7114,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="U37" t="n">
-        <v>2407.975480672791</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="V37" t="n">
-        <v>2407.975480672791</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="W37" t="n">
-        <v>2118.55831063583</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="X37" t="n">
-        <v>2118.55831063583</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="Y37" t="n">
-        <v>2118.55831063583</v>
+        <v>2486.765929974124</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>709.1532345052515</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C38" t="n">
-        <v>709.1532345052515</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D38" t="n">
-        <v>709.1532345052515</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E38" t="n">
-        <v>709.1532345052515</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F38" t="n">
-        <v>298.1673297156439</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7175,16 +7175,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2637.823438671632</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2306.760551328061</v>
       </c>
       <c r="W38" t="n">
-        <v>1485.892406545185</v>
+        <v>2306.760551328061</v>
       </c>
       <c r="X38" t="n">
-        <v>1485.892406545185</v>
+        <v>1933.294793066981</v>
       </c>
       <c r="Y38" t="n">
-        <v>1095.753074569373</v>
+        <v>1543.155461091169</v>
       </c>
     </row>
     <row r="39">
@@ -7266,10 +7266,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7336,46 +7336,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T40" t="n">
-        <v>659.249899616903</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U40" t="n">
-        <v>659.249899616903</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
-        <v>659.249899616903</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>882.8926947117852</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117852</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7436,25 +7436,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="W41" t="n">
-        <v>1838.661061815299</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.631866751719</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y41" t="n">
-        <v>1269.492534775907</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="42">
@@ -7470,10 +7470,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961342</v>
@@ -7482,31 +7482,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>685.9562484787605</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="C43" t="n">
-        <v>517.0200655508536</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="D43" t="n">
-        <v>517.0200655508536</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="E43" t="n">
-        <v>517.0200655508536</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F43" t="n">
-        <v>517.0200655508536</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G43" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>2412.755468037351</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>2412.755468037351</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>2412.755468037351</v>
       </c>
       <c r="X43" t="n">
-        <v>685.9562484787605</v>
+        <v>2412.755468037351</v>
       </c>
       <c r="Y43" t="n">
-        <v>685.9562484787605</v>
+        <v>2191.96288889382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1036.358670716696</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
-        <v>1036.358670716696</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7649,25 +7649,25 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7682,16 +7682,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2186.563601017709</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.097842756629</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1422.958510780817</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7749,19 +7749,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036445</v>
@@ -7810,46 +7810,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0408247018197</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3760678736849</v>
+        <v>371.0607847455308</v>
       </c>
       <c r="N9" t="n">
-        <v>180.4489082265198</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>153.0645313606844</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>25.75595987902526</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,13 +22790,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>412.0374214579385</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22832,13 +22832,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017755</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22914,7 +22914,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299393</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22923,13 +22923,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326066</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22987,7 +22987,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,19 +23021,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0124622370836</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
         <v>338.5273214908784</v>
@@ -23042,7 +23042,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>158.4714552042778</v>
       </c>
     </row>
     <row r="9">
@@ -23224,13 +23224,13 @@
         <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972142</v>
       </c>
       <c r="S10" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>67.93320409404768</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
         <v>286.3167657450791</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V11" t="n">
-        <v>302.3647090711136</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,13 +23431,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>51.36731581839018</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.3604017932783</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23695,25 +23695,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401876</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.3604017932792</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>46.40823887326309</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,22 +23896,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>87.739471003546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>148.3192344835759</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>90.80023766029805</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>316.1267028449086</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,7 +24181,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>24.37936745074319</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>11.44522155260842</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>49.37612586908218</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>40.32635200869845</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>62.45749068994752</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,22 +24491,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>75.03767962637811</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>292.9716002267395</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,13 +24616,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>61.53161905815492</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,19 +24655,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>301.6179050302571</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,13 +24725,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>73.7603874443048</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>48.08099880786376</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24892,7 +24892,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684543</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>363.8045167983309</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>133.501820742899</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,19 +25129,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.43676775329538</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>37.59930637687103</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25211,16 +25211,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>143.4645402713539</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,19 +25312,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>72.6075513149876</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,25 +25354,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>179.6541514514334</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>172.0020656044683</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>192.4917716851645</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T40" t="n">
-        <v>156.8448117144484</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,19 +25628,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>121.3505762185457</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>192.4921975655245</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,13 +25801,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,7 +25840,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>4.732187490914555</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>183.9586470186401</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25922,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>225.9919946618516</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>85.16958467259883</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972479</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="G2" t="n">
         <v>245779.7185133939</v>
       </c>
-      <c r="G2" t="n">
-        <v>245779.7185133938</v>
-      </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26350,7 +26350,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133938</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>26613.58757266304</v>
       </c>
       <c r="E3" t="n">
         <v>407720.4376835744</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>5625.642228525672</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26442,10 +26442,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
         <v>513.1084990597035</v>
@@ -26470,7 +26470,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="D5" t="n">
         <v>50134.40740683334</v>
@@ -26479,13 +26479,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="H5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
@@ -26494,10 +26494,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861916</v>
+        <v>12006.33885861914</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.7703901669</v>
+        <v>92775.77039016687</v>
       </c>
       <c r="D6" t="n">
         <v>70394.51535128016</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326497</v>
+        <v>-211685.3057326496</v>
       </c>
       <c r="F6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="G6" t="n">
         <v>196035.1319509246</v>
@@ -26540,7 +26540,7 @@
         <v>196035.1319509247</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="J6" t="n">
         <v>132975.1893518185</v>
@@ -26552,16 +26552,16 @@
         <v>190409.489722399</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028951</v>
+        <v>93601.01426028949</v>
       </c>
       <c r="N6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="O6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="P6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509247</v>
       </c>
     </row>
   </sheetData>
@@ -26750,34 +26750,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="D4" t="n">
         <v>263.2420339516666</v>
@@ -26799,13 +26799,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="G4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
@@ -26814,10 +26814,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400766</v>
       </c>
       <c r="E4" t="n">
         <v>411.045238802889</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400766</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>411.0452388028889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400766</v>
       </c>
       <c r="M4" t="n">
         <v>411.045238802889</v>
@@ -31613,13 +31613,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6.318693299210549</v>
@@ -31841,7 +31841,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -32078,7 +32078,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529232</v>
       </c>
       <c r="O18" t="n">
-        <v>73.8798454939265</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32403,28 +32403,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32558,7 +32558,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576417</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>111.7343803072874</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>115.481539230439</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33035,28 +33035,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33913,16 +33913,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33986,25 +33986,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34454,7 +34454,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N45" t="n">
         <v>211.31907117367</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798014</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>228.9267508235125</v>
       </c>
       <c r="N9" t="n">
-        <v>61.9814468973745</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M19" t="n">
         <v>146.3614835535656</v>
@@ -36054,10 +36054,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,19 +36206,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36446,13 +36446,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328944</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>242.1053372686586</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390565</v>
+        <v>929720.4897610371</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224445.2846857809</v>
+        <v>265643.4208129668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132057</v>
+        <v>7919633.117874094</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>119.3132525143586</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.265316057196584</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>29.79900896488229</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7664834517758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>125.6384340685011</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>178.4889620437561</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>215.0497352822186</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1458,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>99.34508049624269</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>401.3550844723776</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>12.27152410635478</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1812,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1821,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>318.8646528977445</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>44.91827500188584</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.26541886851889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.552580634567867</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>61.13107858456319</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>33.44111686754157</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2318,16 +2320,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>369.5012845238448</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2336,7 +2338,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.102276705729518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2451,7 +2453,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>205.1478855987998</v>
       </c>
       <c r="U25" t="n">
-        <v>223.8243835520302</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>34.78065824339543</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>49.30642419397993</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>323.9918595228958</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>275.4805812731082</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2874,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>37.83808333974849</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18.92932486514966</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017902</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>376.184863643924</v>
+        <v>81.12200652863805</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>43.60620160013918</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>32.49138749858555</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>368.0745826192877</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>58.73239582312478</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>66.20748566864556</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>95.09774413911212</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>54.89632529172503</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>281.5496867510632</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>133.9698415159348</v>
       </c>
       <c r="X44" t="n">
-        <v>284.5615160058702</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>622.424473941237</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C3" t="n">
-        <v>447.97144466011</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="D3" t="n">
-        <v>299.0370349988588</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="E3" t="n">
-        <v>139.7995799934033</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4410,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4446,13 +4448,13 @@
         <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y3" t="n">
-        <v>790.6398109613051</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.028218801986</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>266.028218801986</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>266.028218801986</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>22.57944215788604</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>22.57944215788604</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4568,49 +4570,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>122.296149021135</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057932</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686974</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759367</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185848</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106358</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106358</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901859</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901859</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>509.4769954460859</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460859</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460859</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460859</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460859</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.8095319084026</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>542.8095319084026</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>781.413677897285</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551991</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915882</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598455</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.9009808048727</v>
+        <v>477.159602222436</v>
       </c>
       <c r="C8" t="n">
-        <v>822.9009808048727</v>
+        <v>477.159602222436</v>
       </c>
       <c r="D8" t="n">
-        <v>822.9009808048727</v>
+        <v>477.159602222436</v>
       </c>
       <c r="E8" t="n">
-        <v>556.9999364092498</v>
+        <v>477.159602222436</v>
       </c>
       <c r="F8" t="n">
-        <v>291.098892013627</v>
+        <v>477.159602222436</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800419</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806666</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.9009808048727</v>
+        <v>720.608378866536</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>394.933760794076</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>621.5712441093533</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>621.5712441093533</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O9" t="n">
-        <v>870.3246581933156</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465643</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148216</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>512.7568786610032</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>332.4649978087242</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5072,19 +5074,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2479.927136187699</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="12">
@@ -5106,13 +5108,13 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,19 +5123,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2769833124028</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2769833124028</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G13" t="n">
-        <v>336.2769833124028</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5309,19 +5311,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2684.753612122915</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2353.690724779344</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5358,28 +5360,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5394,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5440,31 +5442,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036445</v>
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1744.23243129246</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C17" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2520.971603332393</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X17" t="n">
-        <v>2520.971603332393</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y17" t="n">
-        <v>2130.832271356581</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424008</v>
@@ -5589,46 +5591,46 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5637,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C19" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>500.8207968750364</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>272.8312459770191</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1271.835978902614</v>
+        <v>1117.004887669471</v>
       </c>
       <c r="C20" t="n">
-        <v>1271.835978902614</v>
+        <v>748.0423707290595</v>
       </c>
       <c r="D20" t="n">
-        <v>1271.835978902614</v>
+        <v>389.776672122309</v>
       </c>
       <c r="E20" t="n">
-        <v>1271.835978902614</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>860.8500741130063</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>442.8862660111931</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>115.691546047196</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5780,22 +5782,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304456</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W20" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X20" t="n">
-        <v>2048.575150942547</v>
+        <v>1893.744059709405</v>
       </c>
       <c r="Y20" t="n">
-        <v>1658.435818966735</v>
+        <v>1503.604727733593</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5828,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5850,10 +5852,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C22" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5929,31 +5931,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1696.62143709608</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.62143709608</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D23" t="n">
-        <v>1338.355738489329</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E23" t="n">
-        <v>952.5674858910851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2691.995276163951</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2691.995276163951</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2473.360609136013</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2473.360609136013</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2473.360609136013</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2473.360609136013</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2473.360609136013</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y23" t="n">
-        <v>2083.221277160202</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
         <v>53.94298182036446</v>
@@ -6175,22 +6177,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750362</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7355609638946</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V25" t="n">
-        <v>274.7355609638946</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W25" t="n">
-        <v>274.7355609638946</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1494.154169929768</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2606.988423525084</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2254.219768254969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1880.75400999389</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1880.75400999389</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6305,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6327,7 +6329,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6424,10 +6426,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6500,13 +6502,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6522,22 +6524,22 @@
         <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J30" t="n">
         <v>53.94298182036446</v>
@@ -6549,7 +6551,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>564.1527310008552</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>564.1527310008552</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>274.7355609638946</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1345.623078162045</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C32" t="n">
-        <v>976.6605612216329</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D32" t="n">
-        <v>618.3948626148824</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E32" t="n">
-        <v>618.3948626148824</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6725,25 +6727,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1364.743608328862</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1364.743608328862</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6777,10 +6779,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L33" t="n">
         <v>670.8219208598711</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>598.044640063212</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V34" t="n">
-        <v>343.3601518573251</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D35" t="n">
-        <v>819.715945170047</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E35" t="n">
-        <v>433.9276925718028</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="F35" t="n">
-        <v>433.9276925718028</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>368.8844281164666</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2486.765929974124</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="C37" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>2338.852836391731</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S37" t="n">
-        <v>2486.765929974124</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T37" t="n">
-        <v>2486.765929974124</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U37" t="n">
-        <v>2486.765929974124</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V37" t="n">
-        <v>2486.765929974124</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="W37" t="n">
-        <v>2486.765929974124</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="X37" t="n">
-        <v>2486.765929974124</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="Y37" t="n">
-        <v>2486.765929974124</v>
+        <v>97.98965010333333</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1543.155461091169</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C38" t="n">
-        <v>1543.155461091169</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D38" t="n">
-        <v>1184.889762484419</v>
+        <v>1222.509646904467</v>
       </c>
       <c r="E38" t="n">
-        <v>799.1015098861748</v>
+        <v>836.7213943062222</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>425.7354895166147</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7190,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2637.823438671632</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2306.760551328061</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2306.760551328061</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X38" t="n">
-        <v>1933.294793066981</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y38" t="n">
-        <v>1543.155461091169</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7266,28 +7268,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>289.7554128984184</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>120.8192299705115</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>120.8192299705115</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>120.8192299705115</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>120.8192299705115</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>120.8192299705115</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7351,31 +7353,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S40" t="n">
-        <v>535.9356573576496</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T40" t="n">
-        <v>308.6274700262513</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U40" t="n">
-        <v>308.6274700262513</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1219.679656148628</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C41" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7421,40 +7423,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1996.418828188561</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1606.27949621275</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7506,25 +7508,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2191.96288889382</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="C43" t="n">
-        <v>2191.96288889382</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="D43" t="n">
-        <v>2191.96288889382</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="E43" t="n">
-        <v>2191.96288889382</v>
+        <v>109.3938154483695</v>
       </c>
       <c r="F43" t="n">
-        <v>2191.96288889382</v>
+        <v>109.3938154483695</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>2412.755468037351</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>2412.755468037351</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>2412.755468037351</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X43" t="n">
-        <v>2412.755468037351</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y43" t="n">
-        <v>2191.96288889382</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7673,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1780.92228725306</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>1780.92228725306</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1390.782955277248</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7837,19 +7839,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0408247018197</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>371.0607847455308</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L33" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>25.75595987902526</v>
+        <v>33.89410107924331</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.0374214579385</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017755</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>170.3657197299393</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326066</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>127.1894164723251</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.4714552042778</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017162</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>27.19373373354821</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>15.59235192972142</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,10 +23314,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>170.102160979652</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>112.7025231879163</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>56.82580834555246</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>12.42908554841739</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,19 +23551,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>238.9526434019345</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23674,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>46.40823887326309</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23750,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23792,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>69.30217853684377</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>103.6971980163265</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
@@ -23941,7 +23943,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.3192344835759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>373.3777894376939</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>90.80023766029805</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>111.9799311553897</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.19995918853699</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
@@ -24206,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>12.42908554841694</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>49.37612586908218</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,10 +24417,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>19.88721985928444</v>
       </c>
       <c r="U25" t="n">
-        <v>62.45749068994752</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>292.9716002267395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>96.11462382895132</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>30.69118209778719</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>73.7603874443048</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831828</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24892,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>123.9453835684543</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>363.8045167983309</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25129,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401875</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>37.59930637687103</v>
+        <v>332.6621634921569</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25211,10 +25213,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>123.6406194984887</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25354,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>179.6541514514334</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25400,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>45.70958740150729</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25445,13 +25447,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>192.4917716851645</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,7 +25566,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>89.96340317314959</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25591,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>21.8741453697219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>121.3505762185457</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>112.4134769673259</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25840,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>4.732187490914555</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>215.2711272014782</v>
       </c>
       <c r="X44" t="n">
-        <v>85.16958467259883</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.399050244</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="14">
@@ -26317,10 +26319,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133938</v>
@@ -26344,16 +26346,16 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133937</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525672</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714447</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26430,10 +26432,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26442,13 +26444,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26470,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
+        <v>48281.26876376167</v>
+      </c>
+      <c r="D5" t="n">
         <v>48281.26876376166</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26482,10 +26484,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
@@ -26500,16 +26502,16 @@
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861914</v>
+        <v>12006.33885861913</v>
       </c>
       <c r="C6" t="n">
         <v>92775.77039016687</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535128016</v>
+        <v>92775.77039016689</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326496</v>
+        <v>-236811.0420920714</v>
       </c>
       <c r="F6" t="n">
         <v>196035.1319509246</v>
       </c>
       <c r="G6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="H6" t="n">
+        <v>196035.1319509248</v>
+      </c>
+      <c r="I6" t="n">
         <v>196035.1319509247</v>
-      </c>
-      <c r="I6" t="n">
-        <v>196035.1319509248</v>
       </c>
       <c r="J6" t="n">
         <v>132975.1893518185</v>
       </c>
       <c r="K6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.489722399</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028949</v>
+        <v>88061.77127686641</v>
       </c>
       <c r="N6" t="n">
         <v>196035.1319509247</v>
@@ -26741,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26790,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,10 +26804,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
@@ -26820,16 +26822,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26963,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400766</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31622,19 +31624,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32227,10 +32229,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32239,34 +32241,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>91.88325107529232</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32403,28 +32405,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32551,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32558,7 +32560,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
@@ -32786,7 +32788,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,7 +32806,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
@@ -33029,13 +33031,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
@@ -33260,7 +33262,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33497,7 +33499,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33737,7 +33739,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653282</v>
+        <v>115.481539230439</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33755,7 +33757,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034983</v>
@@ -33986,7 +33988,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479578</v>
@@ -34226,7 +34228,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
@@ -34454,7 +34456,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
         <v>211.31907117367</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798014</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>228.9267508235125</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O9" t="n">
-        <v>251.2660748322851</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35501,10 +35503,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
         <v>146.3614835535656</v>
@@ -36054,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M21" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36452,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36917,10 +36919,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L33" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37385,7 +37387,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047524</v>
+        <v>242.1053372686586</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,7 +38104,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338903</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861494.9029543326</v>
+        <v>922122.0512245476</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169258.2082444619</v>
+        <v>190078.9158714495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10850698.87543052</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7968002.373389173</v>
+        <v>7919633.117874093</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>58.07370746369907</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.02188483835992</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>140.0390559390595</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>131.3559228367305</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>218.6304133309208</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>102.2133755837553</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y8" t="n">
-        <v>276.1565137023555</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>175.7569470849743</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.0524176386246</v>
       </c>
     </row>
     <row r="10">
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6773952840985035</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.7279097246867</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>354.3958624239608</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>190.271393580297</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>326.0906771920079</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>95.12739789317808</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>159.5874687115985</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>33.45303598738873</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>41.41707268460647</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>137.6574825653141</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.37668880174255</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>79.3292071608917</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.8329044591243</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>193.144199102302</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>66.12354205134254</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.385280099493396</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>28.71462267227936</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.51033041214353</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>232.3056710074057</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2851,16 +2851,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>370.5337279125264</v>
+        <v>52.82290122762601</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2958,22 +2958,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>43.86617416758083</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>54.66041666588438</v>
       </c>
       <c r="W32" t="n">
-        <v>171.0945107152677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7555630447431</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>325.8478922769012</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>49.92346332673253</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>139.9164830972605</v>
       </c>
     </row>
     <row r="39">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>102.4163325400862</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>162.3364906735233</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>206.9109327655377</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>221.592263427956</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4194,10 +4194,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>266.5980815799443</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>969.7703423957684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>819.3245181314433</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>819.3245181314433</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>760.6642075620503</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>760.6642075620503</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>513.6311445709973</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>266.5980815799443</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>266.5980815799443</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.5980815799443</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>376.1489675720505</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>376.1489675720505</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>553.4903467936876</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>795.6074518312187</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>750.0278363185935</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>514.8757280868508</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>267.8426650957979</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>59.99116489026505</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>556.9999364092498</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>556.9999364092498</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>556.9999364092498</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>556.9999364092498</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>291.098892013627</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415451</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>556.9999364092498</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.05936271613333</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.4169227739707</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>387.0204506688332</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>612.2133470446056</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>612.2133470446056</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285678</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>920.2853854665345</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>718.3003278816104</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>718.3003278816104</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="V6" t="n">
-        <v>483.1482196498678</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="W6" t="n">
-        <v>228.9108629216662</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="X6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706535</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706535</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706535</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613333</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613333</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>404.2843284558963</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C8" t="n">
-        <v>404.2843284558963</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D8" t="n">
-        <v>301.0384945329112</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E8" t="n">
-        <v>22.09252109618844</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F8" t="n">
-        <v>22.09252109618844</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G8" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>22.09252109618846</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>142.8373253438684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>344.9085595412869</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>586.3582880173956</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>817.0829279823542</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>989.7620250901064</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1099.465256491931</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>962.1762753293418</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>962.1762753293418</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T8" t="n">
-        <v>962.1762753293418</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U8" t="n">
-        <v>962.1762753293418</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V8" t="n">
-        <v>962.1762753293418</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W8" t="n">
-        <v>962.1762753293418</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X8" t="n">
-        <v>962.1762753293418</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y8" t="n">
-        <v>683.2303018926191</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
-        <v>28.39914141318535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>165.799003153448</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>411.954469746149</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M9" t="n">
-        <v>594.3151122945369</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N9" t="n">
-        <v>594.3151122945369</v>
+        <v>851.810101014164</v>
       </c>
       <c r="O9" t="n">
-        <v>843.0685263784992</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P9" t="n">
-        <v>1025.71200399185</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>927.0937850266196</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V9" t="n">
-        <v>691.9416767948769</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W9" t="n">
-        <v>437.7043200666752</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X9" t="n">
-        <v>229.8528198611424</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>58.70189726492715</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6904745160687</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>160.9488293168851</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>194.1252445754623</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9927170031359</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.9927170031359</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>22.776758756894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>22.776758756894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>22.776758756894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.146815977588</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C11" t="n">
-        <v>770.1842990371763</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D11" t="n">
-        <v>411.9186004304258</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E11" t="n">
-        <v>411.9186004304258</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>411.9186004304258</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5041,7 +5041,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5053,7 +5053,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.885988017521</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1525.74665604171</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5102,16 +5102,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5120,31 +5120,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5205,37 +5205,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
         <v>53.94298182036445</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.94664591678</v>
+        <v>1490.470645930551</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1121.508128990139</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2369.854633162706</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2369.854633162706</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V14" t="n">
-        <v>2369.854633162706</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W14" t="n">
-        <v>2017.085977892592</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.085977892592</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y14" t="n">
-        <v>1626.94664591678</v>
+        <v>1877.070485994672</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,43 +5357,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504893</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>667.7988452409105</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U16" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V16" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W16" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X16" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y16" t="n">
-        <v>667.7988452409105</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2090.781606227855</v>
+        <v>962.1597273639309</v>
       </c>
       <c r="C17" t="n">
-        <v>1721.819089287443</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2480.920938203667</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2480.920938203667</v>
+        <v>2663.358145576416</v>
       </c>
       <c r="U17" t="n">
-        <v>2480.920938203667</v>
+        <v>2409.596360214508</v>
       </c>
       <c r="V17" t="n">
-        <v>2480.920938203667</v>
+        <v>2078.533472870937</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.920938203667</v>
+        <v>1725.764817600822</v>
       </c>
       <c r="X17" t="n">
-        <v>2480.920938203667</v>
+        <v>1352.299059339743</v>
       </c>
       <c r="Y17" t="n">
-        <v>2090.781606227855</v>
+        <v>962.1597273639309</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1293.690638606345</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C20" t="n">
-        <v>924.728121665933</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D20" t="n">
-        <v>924.728121665933</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E20" t="n">
-        <v>924.728121665933</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F20" t="n">
-        <v>513.7422168763255</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>95.7784087745124</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>95.7784087745124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2503.07243936153</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2284.437772333592</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>2284.437772333592</v>
       </c>
       <c r="V20" t="n">
-        <v>2057.295728843236</v>
+        <v>2284.437772333592</v>
       </c>
       <c r="W20" t="n">
-        <v>2057.295728843236</v>
+        <v>1931.669117063478</v>
       </c>
       <c r="X20" t="n">
-        <v>1683.829970582156</v>
+        <v>1558.203358802398</v>
       </c>
       <c r="Y20" t="n">
-        <v>1293.690638606345</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>266.2060027641994</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.0111167299266</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C22" t="n">
-        <v>485.0749338020197</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D22" t="n">
-        <v>485.0749338020197</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E22" t="n">
-        <v>337.1618402196266</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F22" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>654.0111167299266</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>654.0111167299266</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>654.0111167299266</v>
+        <v>647.9984719227052</v>
       </c>
       <c r="U22" t="n">
-        <v>654.0111167299266</v>
+        <v>647.9984719227052</v>
       </c>
       <c r="V22" t="n">
-        <v>654.0111167299266</v>
+        <v>647.9984719227052</v>
       </c>
       <c r="W22" t="n">
-        <v>654.0111167299266</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X22" t="n">
-        <v>654.0111167299266</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y22" t="n">
-        <v>654.0111167299266</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1095.753074569373</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1095.753074569373</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>737.4873759626228</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>737.4873759626228</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>326.5014711730152</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.892406545185</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y23" t="n">
-        <v>1095.753074569373</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1250.638474227115</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.638474227115</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D26" t="n">
-        <v>892.3727756203643</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E26" t="n">
-        <v>892.3727756203643</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>481.3868708307568</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>63.42306272894365</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>63.42306272894365</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V26" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W26" t="n">
-        <v>1640.777806202927</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X26" t="n">
-        <v>1640.777806202927</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y26" t="n">
-        <v>1250.638474227115</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6326,28 +6326,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>517.6822058285749</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C28" t="n">
-        <v>348.7460229006679</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>699.3306706588146</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W28" t="n">
-        <v>699.3306706588146</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X28" t="n">
-        <v>699.3306706588146</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.3306706588146</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1321.530002831497</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>1695.806495672433</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X29" t="n">
-        <v>1695.806495672433</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y29" t="n">
-        <v>1321.530002831497</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>290.7987205870807</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>143.9087730891704</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>143.9087730891704</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y31" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1626.94664591678</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="C32" t="n">
-        <v>1626.94664591678</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2189.908715988822</v>
+        <v>2333.146074100056</v>
       </c>
       <c r="W32" t="n">
-        <v>2017.085977892592</v>
+        <v>1980.377418829941</v>
       </c>
       <c r="X32" t="n">
-        <v>2017.085977892592</v>
+        <v>1606.911660568862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1626.94664591678</v>
+        <v>1216.77232859305</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>525.3455871915424</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>525.3455871915424</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>525.3455871915424</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>525.3455871915424</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090463</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194388</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>2478.514423990285</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7101,34 +7101,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V37" t="n">
         <v>343.360151857325</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C38" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2189.908715988822</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W38" t="n">
-        <v>2139.480975254749</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X38" t="n">
-        <v>2139.480975254749</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y38" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889461</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7432,31 +7432,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,46 +7487,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7118141694737</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>631.906440948188</v>
+        <v>1074.547708327364</v>
       </c>
       <c r="C44" t="n">
-        <v>262.9439240077763</v>
+        <v>1074.547708327364</v>
       </c>
       <c r="D44" t="n">
-        <v>262.9439240077763</v>
+        <v>1074.547708327364</v>
       </c>
       <c r="E44" t="n">
-        <v>262.9439240077763</v>
+        <v>688.7594557291195</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>277.7735509395119</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2134.880026519315</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W44" t="n">
-        <v>1782.111371249201</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X44" t="n">
-        <v>1408.645612988121</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y44" t="n">
-        <v>1018.50628101231</v>
+        <v>1461.147548391486</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7812,37 +7812,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551154</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
         <v>53.94298182036446</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>310.4744183678152</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>387.1589768055868</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>369.6016060187582</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>326.3367031628142</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>170.7252358559294</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>164.9574894981603</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>83.18952610899251</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.132250799777211</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.6608109389445</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>149.4414326714929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6340117900448</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521648</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.1988827169941</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>39.4077984965549</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>7.310968750054002</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>67.93320409404768</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>252.4696660369276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.1619485273195</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0329468943008</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y8" t="n">
-        <v>110.0814249536981</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>50.1794791572195</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.6302781386798</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>14.93225064571201</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>222.9160118599466</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>285.6381893582233</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>79.20246034757508</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>59.38830759683424</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>96.01048066168073</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>28.59236442867507</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>121.3209224644797</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23700,13 +23700,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>86.9383544042894</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>168.1531355799262</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>14.82824409737302</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>182.9952843702691</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>40.3263520086978</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>110.5142435602548</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>36.75823024365747</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>73.28850317841531</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>145.7058982971926</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>143.9512655616707</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>156.096769615111</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>79.29750597158871</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24414,7 +24414,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24423,7 +24423,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5460361453679</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>341.0164780061897</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>118.1548615680143</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,10 +24660,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>19.83197231642234</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.70421074352714</v>
+        <v>333.4150374284276</v>
       </c>
     </row>
     <row r="30">
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>112.3047146742143</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5193616454013</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>273.0918418042505</v>
       </c>
       <c r="W32" t="n">
-        <v>178.1464580021453</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>11.38997590527583</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>56.8859493865794</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>299.3175053906805</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>246.321455558793</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>267.3147681383829</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>63.37316471551381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>199.9651129761737</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>192.191906592839</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>443398.5167931499</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>459351.3990502438</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>469531.8577299755</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417575</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="C2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>150604.5581398032</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85498.77860120904</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189509</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14295.33970214145</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>394217.2929137605</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589876</v>
+        <v>63059.94259910617</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750004</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3268.5385945816</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99215.77767884448</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.2467736288814</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>196.6176664714447</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>206.5374179011836</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26456,7 +26456,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>51181.37951678014</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26484,31 +26484,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4195.99844542045</v>
+        <v>10784.53779661517</v>
       </c>
       <c r="C6" t="n">
-        <v>61503.72602469093</v>
+        <v>91553.9693281628</v>
       </c>
       <c r="D6" t="n">
-        <v>73254.34891165594</v>
+        <v>91553.96932816284</v>
       </c>
       <c r="E6" t="n">
-        <v>-204250.574708655</v>
+        <v>-237417.8834666534</v>
       </c>
       <c r="F6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763427</v>
       </c>
       <c r="G6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="H6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763427</v>
       </c>
       <c r="I6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="J6" t="n">
-        <v>125978.3466592067</v>
+        <v>132368.3479772366</v>
       </c>
       <c r="K6" t="n">
-        <v>185159.2637133555</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="L6" t="n">
-        <v>186698.1796105238</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="M6" t="n">
-        <v>90750.94052626105</v>
+        <v>87454.92990228464</v>
       </c>
       <c r="N6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763427</v>
       </c>
       <c r="O6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="P6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912534</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>276.1565137023555</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26804,31 +26804,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.00787803233596</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342.7224034979614</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.91447975068888</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052409</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.91447975068888</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.91447975068888</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -31153,16 +31153,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -31384,22 +31384,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155791</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4418552214663</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.42776745276012</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470702</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677233</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840334</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081218</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411507</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796963</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.84383625587038</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847513</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.616303794162698</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0753287494713262</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520189</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727679</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779991</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31624,19 +31624,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263571</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504676</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497752</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008305</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006208</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623704</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174389</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170847</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894685</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.89953440294882</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394052</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179687</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938414</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587926</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390063</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457197</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003444714169094299</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31849,7 +31849,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32077,7 +32077,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,10 +32095,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034982</v>
@@ -32256,7 +32256,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
         <v>95.39071536633797</v>
@@ -32314,10 +32314,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32551,10 +32551,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>11.76595806653305</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32788,13 +32788,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32806,7 +32806,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.29709682323596</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33675,19 +33675,19 @@
         <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954663</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,25 +33891,25 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119862</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34152,16 +34152,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044143</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34453,7 +34453,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
         <v>205.8702969983122</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>179.1327062844819</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611424</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>227.4675720967398</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
-        <v>251.2660748322851</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>121.9644487350302</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>204.1123577751702</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>243.8886146223321</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>233.0551918837966</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>174.4233304118708</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>110.8113448503282</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.7877391315785</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>184.2026692407958</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>251.2660748322851</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.71116244199196</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>36.97916784721082</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>49.4834113647894</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>53.79631798062265</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>33.51153056421936</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35497,19 +35497,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35743,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36454,7 +36454,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38101,22 +38101,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
